--- a/Code/Results/Cases/Case_0_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_215/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.292961168045312</v>
+        <v>4.342782668993784</v>
       </c>
       <c r="D2">
-        <v>6.37773852684259</v>
+        <v>9.055350555275817</v>
       </c>
       <c r="E2">
-        <v>8.241400982115085</v>
+        <v>13.32567920946257</v>
       </c>
       <c r="F2">
-        <v>20.5593359096741</v>
+        <v>32.32900490095896</v>
       </c>
       <c r="G2">
-        <v>2.089108052699729</v>
+        <v>3.655543838190128</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.9911239474117</v>
+        <v>22.4992872989442</v>
       </c>
       <c r="J2">
-        <v>5.547579237071118</v>
+        <v>9.918680427685027</v>
       </c>
       <c r="K2">
-        <v>20.91291616093047</v>
+        <v>14.87214931442036</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.28792471006344</v>
+        <v>17.34426775029964</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.56337943251093</v>
+        <v>24.41475935850357</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.025939335607204</v>
+        <v>4.231923666515726</v>
       </c>
       <c r="D3">
-        <v>6.169336676062347</v>
+        <v>9.030910837732627</v>
       </c>
       <c r="E3">
-        <v>8.166372524079112</v>
+        <v>13.35114581393254</v>
       </c>
       <c r="F3">
-        <v>20.46870388884238</v>
+        <v>32.47284114800821</v>
       </c>
       <c r="G3">
-        <v>2.094839539450976</v>
+        <v>3.657686912343961</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.98263475427064</v>
+        <v>22.60621924636345</v>
       </c>
       <c r="J3">
-        <v>5.616215844609695</v>
+        <v>9.951922749143936</v>
       </c>
       <c r="K3">
-        <v>19.57704271733233</v>
+        <v>14.32033050665856</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.37323273668619</v>
+        <v>17.11510346478222</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.68451855194247</v>
+        <v>24.55090742061739</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.854460928704504</v>
+        <v>4.161722679053244</v>
       </c>
       <c r="D4">
-        <v>6.039970613201919</v>
+        <v>9.016977391424312</v>
       </c>
       <c r="E4">
-        <v>8.125219669099437</v>
+        <v>13.36904847266762</v>
       </c>
       <c r="F4">
-        <v>20.44064357291274</v>
+        <v>32.57051913536</v>
       </c>
       <c r="G4">
-        <v>2.098461624038793</v>
+        <v>3.65907176536805</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.99624674805093</v>
+        <v>22.67817167450871</v>
       </c>
       <c r="J4">
-        <v>5.660868947723552</v>
+        <v>9.97357989110702</v>
       </c>
       <c r="K4">
-        <v>18.70993358522656</v>
+        <v>13.97065735200205</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.78662574954891</v>
+        <v>16.97447443289569</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.77900486177754</v>
+        <v>24.64110421674761</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.782730089720145</v>
+        <v>4.132604443711554</v>
       </c>
       <c r="D5">
-        <v>5.986969617841821</v>
+        <v>9.011572637222011</v>
       </c>
       <c r="E5">
-        <v>8.109669339708161</v>
+        <v>13.37691351846389</v>
       </c>
       <c r="F5">
-        <v>20.43586269504251</v>
+        <v>32.61266854613606</v>
       </c>
       <c r="G5">
-        <v>2.099964251976614</v>
+        <v>3.659653509387644</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.0063090986667</v>
+        <v>22.70907038010944</v>
       </c>
       <c r="J5">
-        <v>5.679684990997254</v>
+        <v>9.982719224268907</v>
       </c>
       <c r="K5">
-        <v>18.34478430021963</v>
+        <v>13.82562219586961</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.54147151327168</v>
+        <v>16.91724364144145</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.82227892516778</v>
+        <v>24.67951547838259</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.770708744750205</v>
+        <v>4.127739319064112</v>
       </c>
       <c r="D6">
-        <v>5.978153901712737</v>
+        <v>9.010691783472884</v>
       </c>
       <c r="E6">
-        <v>8.107160374759721</v>
+        <v>13.37825389493055</v>
       </c>
       <c r="F6">
-        <v>20.43546216115928</v>
+        <v>32.61980877042217</v>
       </c>
       <c r="G6">
-        <v>2.100215389034597</v>
+        <v>3.659751160396421</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.00824619696399</v>
+        <v>22.71429619868649</v>
       </c>
       <c r="J6">
-        <v>5.682846481731789</v>
+        <v>9.98425577546495</v>
       </c>
       <c r="K6">
-        <v>18.28343924055803</v>
+        <v>13.80139170513689</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.50040092324481</v>
+        <v>16.90774680808229</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.82974448079776</v>
+        <v>24.68599348309128</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.853500980080449</v>
+        <v>4.161332013203991</v>
       </c>
       <c r="D7">
-        <v>6.039256873011898</v>
+        <v>9.016903390190995</v>
       </c>
       <c r="E7">
-        <v>8.125005036019621</v>
+        <v>13.36915223765828</v>
       </c>
       <c r="F7">
-        <v>20.44055253947717</v>
+        <v>32.57107809536765</v>
       </c>
       <c r="G7">
-        <v>2.098481780382258</v>
+        <v>3.659079540425173</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.99636446149077</v>
+        <v>22.67858200549102</v>
       </c>
       <c r="J7">
-        <v>5.661120213452626</v>
+        <v>9.973701875830463</v>
       </c>
       <c r="K7">
-        <v>18.70505681115056</v>
+        <v>13.96871137880696</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.78334397955407</v>
+        <v>16.97370221272142</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.77956952761905</v>
+        <v>24.64161554817311</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.202475577211212</v>
+        <v>4.305016011907021</v>
       </c>
       <c r="D8">
-        <v>6.306213908086662</v>
+        <v>9.046703281283559</v>
       </c>
       <c r="E8">
-        <v>8.214502089761279</v>
+        <v>13.33398964292108</v>
       </c>
       <c r="F8">
-        <v>20.52219437181784</v>
+        <v>32.37665103556707</v>
       </c>
       <c r="G8">
-        <v>2.091063349548056</v>
+        <v>3.656268483258158</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.98416025786159</v>
+        <v>22.53484738938645</v>
       </c>
       <c r="J8">
-        <v>5.570716857938033</v>
+        <v>9.929884027044858</v>
       </c>
       <c r="K8">
-        <v>20.4620268303346</v>
+        <v>14.68424193866269</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.97781646726713</v>
+        <v>17.26526960571447</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.6008004673037</v>
+        <v>24.46033031326352</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.825755992117419</v>
+        <v>4.56882386230467</v>
       </c>
       <c r="D9">
-        <v>6.815775308345938</v>
+        <v>9.113489626133106</v>
       </c>
       <c r="E9">
-        <v>8.429618509494627</v>
+        <v>13.2830253161047</v>
       </c>
       <c r="F9">
-        <v>20.91297207213477</v>
+        <v>32.07007006584518</v>
       </c>
       <c r="G9">
-        <v>2.077298113952045</v>
+        <v>3.651300936316999</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.11899821734265</v>
+        <v>22.30318655638213</v>
       </c>
       <c r="J9">
-        <v>5.413935655197387</v>
+        <v>9.85382286163404</v>
       </c>
       <c r="K9">
-        <v>23.53664002262029</v>
+        <v>15.99399766303063</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.12717058742941</v>
+        <v>17.83517820200335</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.42295216662597</v>
+        <v>24.1574170895962</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.245184695599845</v>
+        <v>4.750448452672321</v>
       </c>
       <c r="D10">
-        <v>7.178393627041594</v>
+        <v>9.167419248266434</v>
       </c>
       <c r="E10">
-        <v>8.612531111849469</v>
+        <v>13.2565581668719</v>
       </c>
       <c r="F10">
-        <v>21.35533791526354</v>
+        <v>31.89090096418276</v>
       </c>
       <c r="G10">
-        <v>2.067610589238633</v>
+        <v>3.647979931170894</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.32703313249425</v>
+        <v>22.16392464154621</v>
       </c>
       <c r="J10">
-        <v>5.312160565949856</v>
+        <v>9.80392333069975</v>
       </c>
       <c r="K10">
-        <v>25.57203257970188</v>
+        <v>16.89093097512941</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.7229268219915</v>
+        <v>18.24948964543069</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.41599678582141</v>
+        <v>23.96721140565472</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.427491023619942</v>
+        <v>4.830198203550448</v>
       </c>
       <c r="D11">
-        <v>7.340250490239518</v>
+        <v>9.192956481343709</v>
       </c>
       <c r="E11">
-        <v>8.701264045295092</v>
+        <v>13.2469013818013</v>
       </c>
       <c r="F11">
-        <v>21.59297362600007</v>
+        <v>31.81950844825057</v>
       </c>
       <c r="G11">
-        <v>2.06328377283412</v>
+        <v>3.646539727229774</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.44770490911183</v>
+        <v>22.10735896258548</v>
       </c>
       <c r="J11">
-        <v>5.269009511326706</v>
+        <v>9.782515209712727</v>
       </c>
       <c r="K11">
-        <v>26.45020006388483</v>
+        <v>17.28335116128769</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.41153665225483</v>
+        <v>18.4363428190357</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.44368563837719</v>
+        <v>23.88776796178604</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.495298574793833</v>
+        <v>4.859967568113243</v>
       </c>
       <c r="D12">
-        <v>7.401058142920622</v>
+        <v>9.202766448363155</v>
       </c>
       <c r="E12">
-        <v>8.735667439180933</v>
+        <v>13.24358717713646</v>
       </c>
       <c r="F12">
-        <v>21.68838254880673</v>
+        <v>31.79393685169783</v>
       </c>
       <c r="G12">
-        <v>2.061655756350593</v>
+        <v>3.646004445470666</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.49731978302081</v>
+        <v>22.08692038106853</v>
       </c>
       <c r="J12">
-        <v>5.253144751062747</v>
+        <v>9.774593745749184</v>
       </c>
       <c r="K12">
-        <v>26.77594461686629</v>
+        <v>17.42960857283956</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.66699764438769</v>
+        <v>18.50681210861852</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.45893180263949</v>
+        <v>23.85870857948654</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.480749673914664</v>
+        <v>4.853575588382496</v>
       </c>
       <c r="D13">
-        <v>7.387984194664974</v>
+        <v>9.200647568065182</v>
       </c>
       <c r="E13">
-        <v>8.728222259031369</v>
+        <v>13.24428571534054</v>
       </c>
       <c r="F13">
-        <v>21.6675906618593</v>
+        <v>31.79937893584763</v>
       </c>
       <c r="G13">
-        <v>2.062005931590027</v>
+        <v>3.646119279930096</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.48645739258989</v>
+        <v>22.09127844515516</v>
       </c>
       <c r="J13">
-        <v>5.256539961669664</v>
+        <v>9.776291538205161</v>
       </c>
       <c r="K13">
-        <v>26.70609091352971</v>
+        <v>17.39821510951805</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.61221422196643</v>
+        <v>18.49164895124977</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.45543143225238</v>
+        <v>23.86492139732896</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.433094222346549</v>
+        <v>4.832656059874521</v>
       </c>
       <c r="D14">
-        <v>7.345263069225489</v>
+        <v>9.193760784426136</v>
       </c>
       <c r="E14">
-        <v>8.70407831446059</v>
+        <v>13.24662185468149</v>
       </c>
       <c r="F14">
-        <v>21.60071332750836</v>
+        <v>31.81737528227712</v>
       </c>
       <c r="G14">
-        <v>2.063149631765917</v>
+        <v>3.646495487305825</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.45170725768688</v>
+        <v>22.10565776183906</v>
       </c>
       <c r="J14">
-        <v>5.267694634196563</v>
+        <v>9.781859794011586</v>
       </c>
       <c r="K14">
-        <v>26.47713510422002</v>
+        <v>17.29543134265978</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.43265942930725</v>
+        <v>18.44214645014952</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.44484269869332</v>
+        <v>23.88535667090215</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.403743855267958</v>
+        <v>4.819785748261056</v>
       </c>
       <c r="D15">
-        <v>7.319031086546486</v>
+        <v>9.189560459906634</v>
       </c>
       <c r="E15">
-        <v>8.689394135342113</v>
+        <v>13.24809742085625</v>
       </c>
       <c r="F15">
-        <v>21.56046024028968</v>
+        <v>31.82858937872674</v>
       </c>
       <c r="G15">
-        <v>2.063851509851664</v>
+        <v>3.646727237981558</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.43093713313012</v>
+        <v>22.1145935165281</v>
       </c>
       <c r="J15">
-        <v>5.274589862539547</v>
+        <v>9.785294635435573</v>
       </c>
       <c r="K15">
-        <v>26.33600982232903</v>
+        <v>17.23216536450089</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.32198862489556</v>
+        <v>18.41178563401865</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.43898632749059</v>
+        <v>23.89800740839281</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.233098974192713</v>
+        <v>4.745177322152114</v>
       </c>
       <c r="D16">
-        <v>7.167750102503535</v>
+        <v>9.165770129270259</v>
       </c>
       <c r="E16">
-        <v>8.606844051379081</v>
+        <v>13.25723721142916</v>
       </c>
       <c r="F16">
-        <v>21.34055683120316</v>
+        <v>31.89577090147817</v>
       </c>
       <c r="G16">
-        <v>2.067894879454674</v>
+        <v>3.648075466916739</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.31968615423063</v>
+        <v>22.167758385799</v>
       </c>
       <c r="J16">
-        <v>5.315045825772057</v>
+        <v>9.805348355942661</v>
       </c>
       <c r="K16">
-        <v>25.51368710949536</v>
+        <v>16.86496259405465</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.67717920339977</v>
+        <v>18.23724101707561</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.41483596644226</v>
+        <v>23.97254621982644</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.126232343756162</v>
+        <v>4.698659127059138</v>
       </c>
       <c r="D17">
-        <v>7.074120854217586</v>
+        <v>9.151429374645048</v>
       </c>
       <c r="E17">
-        <v>8.55762298883454</v>
+        <v>13.26345454594305</v>
       </c>
       <c r="F17">
-        <v>21.21511646221962</v>
+        <v>31.93958116151886</v>
       </c>
       <c r="G17">
-        <v>2.070395136926388</v>
+        <v>3.648920591717389</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.25823480446106</v>
+        <v>22.20211541736805</v>
       </c>
       <c r="J17">
-        <v>5.340685848120236</v>
+        <v>9.817981156431641</v>
       </c>
       <c r="K17">
-        <v>24.99703586623296</v>
+        <v>16.6356243377365</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.27209828771105</v>
+        <v>18.12970906631754</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.40815532948592</v>
+        <v>24.02009131783329</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.063966086854745</v>
+        <v>4.671633663515443</v>
       </c>
       <c r="D18">
-        <v>7.019977868579631</v>
+        <v>9.143275790248758</v>
       </c>
       <c r="E18">
-        <v>8.52983197760388</v>
+        <v>13.26725492745769</v>
       </c>
       <c r="F18">
-        <v>21.1463829928303</v>
+        <v>31.96573097084933</v>
       </c>
       <c r="G18">
-        <v>2.07184082506793</v>
+        <v>3.649413327543781</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.22533062221273</v>
+        <v>22.2225149888878</v>
       </c>
       <c r="J18">
-        <v>5.355727980600905</v>
+        <v>9.825368786242651</v>
       </c>
       <c r="K18">
-        <v>24.69537344912453</v>
+        <v>16.50225183473304</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.03559074301202</v>
+        <v>18.0677103186837</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.40719767691774</v>
+        <v>24.04810425294227</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.042746775191513</v>
+        <v>4.662437580098352</v>
       </c>
       <c r="D19">
-        <v>7.001597461744477</v>
+        <v>9.140531560497459</v>
       </c>
       <c r="E19">
-        <v>8.520511425089122</v>
+        <v>13.26858020253577</v>
       </c>
       <c r="F19">
-        <v>21.12369175351473</v>
+        <v>31.97474795375648</v>
       </c>
       <c r="G19">
-        <v>2.072331647687699</v>
+        <v>3.649581301827598</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.21460350495895</v>
+        <v>22.22953138285667</v>
       </c>
       <c r="J19">
-        <v>5.360870937849444</v>
+        <v>9.827891003454663</v>
       </c>
       <c r="K19">
-        <v>24.592461239113</v>
+        <v>16.45684617846388</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.95490764617147</v>
+        <v>18.04669468868314</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.40735892885224</v>
+        <v>24.05770320714679</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.137691274507041</v>
+        <v>4.703639082355337</v>
       </c>
       <c r="D20">
-        <v>7.084118150592183</v>
+        <v>9.152946191705071</v>
       </c>
       <c r="E20">
-        <v>8.562808816895533</v>
+        <v>13.26276948263166</v>
       </c>
       <c r="F20">
-        <v>21.22811478377729</v>
+        <v>31.93481896126598</v>
       </c>
       <c r="G20">
-        <v>2.070128200482698</v>
+        <v>3.648829939646734</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.26452245582558</v>
+        <v>22.19839194626572</v>
       </c>
       <c r="J20">
-        <v>5.337925768064121</v>
+        <v>9.816623793251436</v>
       </c>
       <c r="K20">
-        <v>25.05249936788205</v>
+        <v>16.66018999391872</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.3155832558891</v>
+        <v>18.14117187399667</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.40856555106974</v>
+        <v>24.01496106498394</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.447125138695458</v>
+        <v>4.838812434550051</v>
       </c>
       <c r="D21">
-        <v>7.35782470857394</v>
+        <v>9.195779851323428</v>
       </c>
       <c r="E21">
-        <v>8.711148147037967</v>
+        <v>13.24592637685575</v>
       </c>
       <c r="F21">
-        <v>21.62020830233044</v>
+        <v>31.81204953782381</v>
       </c>
       <c r="G21">
-        <v>2.062813424407143</v>
+        <v>3.64638471258495</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.46180652652954</v>
+        <v>22.10140752086037</v>
       </c>
       <c r="J21">
-        <v>5.264405131208131</v>
+        <v>9.780219235553941</v>
       </c>
       <c r="K21">
-        <v>26.54456891118894</v>
+        <v>17.32568576401511</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.48554234615132</v>
+        <v>18.45669477988297</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.44782110362892</v>
+        <v>23.87932649528634</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.642200877936911</v>
+        <v>4.924642073629655</v>
       </c>
       <c r="D22">
-        <v>7.533873259742342</v>
+        <v>9.224585284761842</v>
       </c>
       <c r="E22">
-        <v>8.812775426939153</v>
+        <v>13.23691531314081</v>
       </c>
       <c r="F22">
-        <v>21.90813626020108</v>
+        <v>31.74034522639818</v>
       </c>
       <c r="G22">
-        <v>2.058093184284564</v>
+        <v>3.644845417079804</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.61365765337148</v>
+        <v>22.0437468327623</v>
       </c>
       <c r="J22">
-        <v>5.219140057523843</v>
+        <v>9.757506810886781</v>
       </c>
       <c r="K22">
-        <v>27.48013261270136</v>
+        <v>17.7469281791173</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.21931541455327</v>
+        <v>18.6612045834224</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.50137237921161</v>
+        <v>23.79665354582124</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.538741210690898</v>
+        <v>4.879068443695908</v>
       </c>
       <c r="D23">
-        <v>7.44018316746682</v>
+        <v>9.209138708004083</v>
       </c>
       <c r="E23">
-        <v>8.758104466655102</v>
+        <v>13.24154203077851</v>
       </c>
       <c r="F23">
-        <v>21.75150939412536</v>
+        <v>31.77783153170962</v>
       </c>
       <c r="G23">
-        <v>2.060607311366195</v>
+        <v>3.645661604471125</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.53046099109139</v>
+        <v>22.07399574256368</v>
       </c>
       <c r="J23">
-        <v>5.243035713613374</v>
+        <v>9.769530156408459</v>
       </c>
       <c r="K23">
-        <v>26.98440307637435</v>
+        <v>17.52338622717629</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.83048842844942</v>
+        <v>18.55222737768672</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.47013342047811</v>
+        <v>23.84022930244633</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.132513267940888</v>
+        <v>4.701388520175209</v>
       </c>
       <c r="D24">
-        <v>7.079599348848181</v>
+        <v>9.152260154573014</v>
       </c>
       <c r="E24">
-        <v>8.56046272593643</v>
+        <v>13.26307849592755</v>
       </c>
       <c r="F24">
-        <v>21.2222277170172</v>
+        <v>31.93696895387293</v>
       </c>
       <c r="G24">
-        <v>2.070248856651488</v>
+        <v>3.648870902067479</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.26167226870588</v>
+        <v>22.2000733118015</v>
       </c>
       <c r="J24">
-        <v>5.339172663356029</v>
+        <v>9.817237068165106</v>
       </c>
       <c r="K24">
-        <v>25.02743875370168</v>
+        <v>16.64908859645415</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.29593498559063</v>
+        <v>18.13599008635607</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.408371134259</v>
+        <v>24.01727833880592</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.663835230224211</v>
+        <v>4.499515159442733</v>
       </c>
       <c r="D25">
-        <v>6.679779479931641</v>
+        <v>9.094551103817244</v>
       </c>
       <c r="E25">
-        <v>8.367101842230536</v>
+        <v>13.2948853014343</v>
       </c>
       <c r="F25">
-        <v>20.78096932536817</v>
+        <v>32.14495522574269</v>
       </c>
       <c r="G25">
-        <v>2.080943306671129</v>
+        <v>3.652586819563192</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.06422689754753</v>
+        <v>22.36044755776615</v>
       </c>
       <c r="J25">
-        <v>5.454066772628527</v>
+        <v>9.873346562932465</v>
       </c>
       <c r="K25">
-        <v>22.74435264972777</v>
+        <v>15.65061046354425</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.56022311180634</v>
+        <v>17.68154269250163</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.45068908436685</v>
+        <v>24.23370403585931</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_215/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.342782668993784</v>
+        <v>5.292961168045283</v>
       </c>
       <c r="D2">
-        <v>9.055350555275817</v>
+        <v>6.377738526842569</v>
       </c>
       <c r="E2">
-        <v>13.32567920946257</v>
+        <v>8.241400982115133</v>
       </c>
       <c r="F2">
-        <v>32.32900490095896</v>
+        <v>20.55933590967399</v>
       </c>
       <c r="G2">
-        <v>3.655543838190128</v>
+        <v>2.08910805269973</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.4992872989442</v>
+        <v>13.99112394741162</v>
       </c>
       <c r="J2">
-        <v>9.918680427685027</v>
+        <v>5.547579237071183</v>
       </c>
       <c r="K2">
-        <v>14.87214931442036</v>
+        <v>20.91291616093051</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.34426775029964</v>
+        <v>16.28792471006343</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.41475935850357</v>
+        <v>14.56337943251086</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.231923666515726</v>
+        <v>5.025939335607126</v>
       </c>
       <c r="D3">
-        <v>9.030910837732627</v>
+        <v>6.169336676062341</v>
       </c>
       <c r="E3">
-        <v>13.35114581393254</v>
+        <v>8.166372524079211</v>
       </c>
       <c r="F3">
-        <v>32.47284114800821</v>
+        <v>20.46870388884236</v>
       </c>
       <c r="G3">
-        <v>3.657686912343961</v>
+        <v>2.094839539450841</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.60621924636345</v>
+        <v>13.98263475427068</v>
       </c>
       <c r="J3">
-        <v>9.951922749143936</v>
+        <v>5.616215844609791</v>
       </c>
       <c r="K3">
-        <v>14.32033050665856</v>
+        <v>19.57704271733234</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.11510346478222</v>
+        <v>15.37323273668619</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.55090742061739</v>
+        <v>14.68451855194246</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.161722679053244</v>
+        <v>4.854460928704584</v>
       </c>
       <c r="D4">
-        <v>9.016977391424312</v>
+        <v>6.039970613201868</v>
       </c>
       <c r="E4">
-        <v>13.36904847266762</v>
+        <v>8.125219669099454</v>
       </c>
       <c r="F4">
-        <v>32.57051913536</v>
+        <v>20.44064357291247</v>
       </c>
       <c r="G4">
-        <v>3.65907176536805</v>
+        <v>2.098461624038794</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.67817167450871</v>
+        <v>13.99624674805072</v>
       </c>
       <c r="J4">
-        <v>9.97357989110702</v>
+        <v>5.660868947723554</v>
       </c>
       <c r="K4">
-        <v>13.97065735200205</v>
+        <v>18.7099335852266</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.97447443289569</v>
+        <v>14.78662574954892</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.64110421674761</v>
+        <v>14.77900486177738</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.132604443711554</v>
+        <v>4.782730089720078</v>
       </c>
       <c r="D5">
-        <v>9.011572637222011</v>
+        <v>5.986969617841742</v>
       </c>
       <c r="E5">
-        <v>13.37691351846389</v>
+        <v>8.109669339708166</v>
       </c>
       <c r="F5">
-        <v>32.61266854613606</v>
+        <v>20.43586269504242</v>
       </c>
       <c r="G5">
-        <v>3.659653509387644</v>
+        <v>2.099964251976345</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.70907038010944</v>
+        <v>14.0063090986667</v>
       </c>
       <c r="J5">
-        <v>9.982719224268907</v>
+        <v>5.679684990997316</v>
       </c>
       <c r="K5">
-        <v>13.82562219586961</v>
+        <v>18.34478430021963</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.91724364144145</v>
+        <v>14.54147151327168</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.67951547838259</v>
+        <v>14.82227892516776</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.127739319064112</v>
+        <v>4.770708744750099</v>
       </c>
       <c r="D6">
-        <v>9.010691783472884</v>
+        <v>5.978153901712632</v>
       </c>
       <c r="E6">
-        <v>13.37825389493055</v>
+        <v>8.107160374759612</v>
       </c>
       <c r="F6">
-        <v>32.61980877042217</v>
+        <v>20.43546216115895</v>
       </c>
       <c r="G6">
-        <v>3.659751160396421</v>
+        <v>2.100215389034597</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.71429619868649</v>
+        <v>14.00824619696382</v>
       </c>
       <c r="J6">
-        <v>9.98425577546495</v>
+        <v>5.682846481731755</v>
       </c>
       <c r="K6">
-        <v>13.80139170513689</v>
+        <v>18.28343924055806</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.90774680808229</v>
+        <v>14.50040092324477</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.68599348309128</v>
+        <v>14.82974448079749</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.161332013203991</v>
+        <v>4.853500980080649</v>
       </c>
       <c r="D7">
-        <v>9.016903390190995</v>
+        <v>6.039256873011898</v>
       </c>
       <c r="E7">
-        <v>13.36915223765828</v>
+        <v>8.125005036019674</v>
       </c>
       <c r="F7">
-        <v>32.57107809536765</v>
+        <v>20.44055253947726</v>
       </c>
       <c r="G7">
-        <v>3.659079540425173</v>
+        <v>2.098481780381856</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.67858200549102</v>
+        <v>13.99636446149082</v>
       </c>
       <c r="J7">
-        <v>9.973701875830463</v>
+        <v>5.661120213452686</v>
       </c>
       <c r="K7">
-        <v>13.96871137880696</v>
+        <v>18.70505681115055</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.97370221272142</v>
+        <v>14.78334397955408</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.64161554817311</v>
+        <v>14.77956952761913</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.305016011907021</v>
+        <v>5.202475577211317</v>
       </c>
       <c r="D8">
-        <v>9.046703281283559</v>
+        <v>6.306213908086725</v>
       </c>
       <c r="E8">
-        <v>13.33398964292108</v>
+        <v>8.214502089761282</v>
       </c>
       <c r="F8">
-        <v>32.37665103556707</v>
+        <v>20.52219437181761</v>
       </c>
       <c r="G8">
-        <v>3.656268483258158</v>
+        <v>2.091063349548056</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.53484738938645</v>
+        <v>13.98416025786138</v>
       </c>
       <c r="J8">
-        <v>9.929884027044858</v>
+        <v>5.570716857938006</v>
       </c>
       <c r="K8">
-        <v>14.68424193866269</v>
+        <v>20.46202683033468</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.26526960571447</v>
+        <v>15.9778164672671</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.46033031326352</v>
+        <v>14.60080046730346</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.56882386230467</v>
+        <v>5.825755992117503</v>
       </c>
       <c r="D9">
-        <v>9.113489626133106</v>
+        <v>6.81577530834601</v>
       </c>
       <c r="E9">
-        <v>13.2830253161047</v>
+        <v>8.429618509494757</v>
       </c>
       <c r="F9">
-        <v>32.07007006584518</v>
+        <v>20.91297207213461</v>
       </c>
       <c r="G9">
-        <v>3.651300936316999</v>
+        <v>2.077298113952177</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.30318655638213</v>
+        <v>14.11899821734247</v>
       </c>
       <c r="J9">
-        <v>9.85382286163404</v>
+        <v>5.413935655197447</v>
       </c>
       <c r="K9">
-        <v>15.99399766303063</v>
+        <v>23.53664002262035</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.83517820200335</v>
+        <v>18.12717058742944</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.1574170895962</v>
+        <v>14.42295216662576</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.750448452672321</v>
+        <v>6.245184695599924</v>
       </c>
       <c r="D10">
-        <v>9.167419248266434</v>
+        <v>7.178393627041624</v>
       </c>
       <c r="E10">
-        <v>13.2565581668719</v>
+        <v>8.612531111849469</v>
       </c>
       <c r="F10">
-        <v>31.89090096418276</v>
+        <v>21.35533791526348</v>
       </c>
       <c r="G10">
-        <v>3.647979931170894</v>
+        <v>2.0676105892385</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.16392464154621</v>
+        <v>14.32703313249421</v>
       </c>
       <c r="J10">
-        <v>9.80392333069975</v>
+        <v>5.312160565949883</v>
       </c>
       <c r="K10">
-        <v>16.89093097512941</v>
+        <v>25.57203257970192</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.24948964543069</v>
+        <v>19.72292682199153</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.96721140565472</v>
+        <v>14.41599678582138</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.830198203550448</v>
+        <v>6.427491023619812</v>
       </c>
       <c r="D11">
-        <v>9.192956481343709</v>
+        <v>7.340250490239525</v>
       </c>
       <c r="E11">
-        <v>13.2469013818013</v>
+        <v>8.701264045295144</v>
       </c>
       <c r="F11">
-        <v>31.81950844825057</v>
+        <v>21.59297362600003</v>
       </c>
       <c r="G11">
-        <v>3.646539727229774</v>
+        <v>2.063283772834254</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.10735896258548</v>
+        <v>14.44770490911182</v>
       </c>
       <c r="J11">
-        <v>9.782515209712727</v>
+        <v>5.269009511326736</v>
       </c>
       <c r="K11">
-        <v>17.28335116128769</v>
+        <v>26.45020006388483</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.4363428190357</v>
+        <v>20.41153665225484</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.88776796178604</v>
+        <v>14.44368563837714</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.859967568113243</v>
+        <v>6.495298574793959</v>
       </c>
       <c r="D12">
-        <v>9.202766448363155</v>
+        <v>7.401058142920523</v>
       </c>
       <c r="E12">
-        <v>13.24358717713646</v>
+        <v>8.73566743918097</v>
       </c>
       <c r="F12">
-        <v>31.79393685169783</v>
+        <v>21.68838254880655</v>
       </c>
       <c r="G12">
-        <v>3.646004445470666</v>
+        <v>2.061655756350595</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.08692038106853</v>
+        <v>14.49731978302065</v>
       </c>
       <c r="J12">
-        <v>9.774593745749184</v>
+        <v>5.253144751062803</v>
       </c>
       <c r="K12">
-        <v>17.42960857283956</v>
+        <v>26.77594461686635</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.50681210861852</v>
+        <v>20.66699764438773</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.85870857948654</v>
+        <v>14.45893180263934</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.853575588382496</v>
+        <v>6.480749673914662</v>
       </c>
       <c r="D13">
-        <v>9.200647568065182</v>
+        <v>7.387984194665076</v>
       </c>
       <c r="E13">
-        <v>13.24428571534054</v>
+        <v>8.728222259031417</v>
       </c>
       <c r="F13">
-        <v>31.79937893584763</v>
+        <v>21.66759066185926</v>
       </c>
       <c r="G13">
-        <v>3.646119279930096</v>
+        <v>2.062005931590028</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.09127844515516</v>
+        <v>14.48645739258982</v>
       </c>
       <c r="J13">
-        <v>9.776291538205161</v>
+        <v>5.256539961669664</v>
       </c>
       <c r="K13">
-        <v>17.39821510951805</v>
+        <v>26.70609091352974</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.49164895124977</v>
+        <v>20.61221422196643</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.86492139732896</v>
+        <v>14.45543143225231</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.832656059874521</v>
+        <v>6.433094222346693</v>
       </c>
       <c r="D14">
-        <v>9.193760784426136</v>
+        <v>7.345263069225386</v>
       </c>
       <c r="E14">
-        <v>13.24662185468149</v>
+        <v>8.704078314460505</v>
       </c>
       <c r="F14">
-        <v>31.81737528227712</v>
+        <v>21.60071332750837</v>
       </c>
       <c r="G14">
-        <v>3.646495487305825</v>
+        <v>2.063149631765784</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.10565776183906</v>
+        <v>14.45170725768691</v>
       </c>
       <c r="J14">
-        <v>9.781859794011586</v>
+        <v>5.267694634196562</v>
       </c>
       <c r="K14">
-        <v>17.29543134265978</v>
+        <v>26.47713510421998</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.44214645014952</v>
+        <v>20.43265942930724</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.88535667090215</v>
+        <v>14.44484269869342</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.819785748261056</v>
+        <v>6.403743855268106</v>
       </c>
       <c r="D15">
-        <v>9.189560459906634</v>
+        <v>7.319031086546494</v>
       </c>
       <c r="E15">
-        <v>13.24809742085625</v>
+        <v>8.68939413534207</v>
       </c>
       <c r="F15">
-        <v>31.82858937872674</v>
+        <v>21.56046024028976</v>
       </c>
       <c r="G15">
-        <v>3.646727237981558</v>
+        <v>2.063851509851664</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.1145935165281</v>
+        <v>14.43093713313015</v>
       </c>
       <c r="J15">
-        <v>9.785294635435573</v>
+        <v>5.274589862539461</v>
       </c>
       <c r="K15">
-        <v>17.23216536450089</v>
+        <v>26.33600982232901</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.41178563401865</v>
+        <v>20.32198862489556</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.89800740839281</v>
+        <v>14.43898632749066</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.745177322152114</v>
+        <v>6.233098974192698</v>
       </c>
       <c r="D16">
-        <v>9.165770129270259</v>
+        <v>7.167750102503454</v>
       </c>
       <c r="E16">
-        <v>13.25723721142916</v>
+        <v>8.606844051379092</v>
       </c>
       <c r="F16">
-        <v>31.89577090147817</v>
+        <v>21.34055683120298</v>
       </c>
       <c r="G16">
-        <v>3.648075466916739</v>
+        <v>2.06789487945454</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.167758385799</v>
+        <v>14.31968615423057</v>
       </c>
       <c r="J16">
-        <v>9.805348355942661</v>
+        <v>5.315045825772175</v>
       </c>
       <c r="K16">
-        <v>16.86496259405465</v>
+        <v>25.51368710949539</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.23724101707561</v>
+        <v>19.6771792033998</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.97254621982644</v>
+        <v>14.41483596644215</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.698659127059138</v>
+        <v>6.126232343756163</v>
       </c>
       <c r="D17">
-        <v>9.151429374645048</v>
+        <v>7.074120854217512</v>
       </c>
       <c r="E17">
-        <v>13.26345454594305</v>
+        <v>8.557622988834499</v>
       </c>
       <c r="F17">
-        <v>31.93958116151886</v>
+        <v>21.21511646221954</v>
       </c>
       <c r="G17">
-        <v>3.648920591717389</v>
+        <v>2.070395136926522</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.20211541736805</v>
+        <v>14.25823480446102</v>
       </c>
       <c r="J17">
-        <v>9.817981156431641</v>
+        <v>5.340685848120268</v>
       </c>
       <c r="K17">
-        <v>16.6356243377365</v>
+        <v>24.99703586623298</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.12970906631754</v>
+        <v>19.27209828771108</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.02009131783329</v>
+        <v>14.40815532948582</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.671633663515443</v>
+        <v>6.063966086854797</v>
       </c>
       <c r="D18">
-        <v>9.143275790248758</v>
+        <v>7.019977868579701</v>
       </c>
       <c r="E18">
-        <v>13.26725492745769</v>
+        <v>8.529831977603878</v>
       </c>
       <c r="F18">
-        <v>31.96573097084933</v>
+        <v>21.14638299283031</v>
       </c>
       <c r="G18">
-        <v>3.649413327543781</v>
+        <v>2.07184082506793</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.2225149888878</v>
+        <v>14.22533062221272</v>
       </c>
       <c r="J18">
-        <v>9.825368786242651</v>
+        <v>5.355727980600843</v>
       </c>
       <c r="K18">
-        <v>16.50225183473304</v>
+        <v>24.69537344912453</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.0677103186837</v>
+        <v>19.03559074301202</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.04810425294227</v>
+        <v>14.40719767691773</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.662437580098352</v>
+        <v>6.042746775191648</v>
       </c>
       <c r="D19">
-        <v>9.140531560497459</v>
+        <v>7.001597461744435</v>
       </c>
       <c r="E19">
-        <v>13.26858020253577</v>
+        <v>8.520511425088939</v>
       </c>
       <c r="F19">
-        <v>31.97474795375648</v>
+        <v>21.12369175351478</v>
       </c>
       <c r="G19">
-        <v>3.649581301827598</v>
+        <v>2.072331647687701</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.22953138285667</v>
+        <v>14.21460350495903</v>
       </c>
       <c r="J19">
-        <v>9.827891003454663</v>
+        <v>5.360870937849378</v>
       </c>
       <c r="K19">
-        <v>16.45684617846388</v>
+        <v>24.59246123911295</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.04669468868314</v>
+        <v>18.95490764617147</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.05770320714679</v>
+        <v>14.4073589288523</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.703639082355337</v>
+        <v>6.137691274507175</v>
       </c>
       <c r="D20">
-        <v>9.152946191705071</v>
+        <v>7.084118150592104</v>
       </c>
       <c r="E20">
-        <v>13.26276948263166</v>
+        <v>8.562808816895458</v>
       </c>
       <c r="F20">
-        <v>31.93481896126598</v>
+        <v>21.22811478377733</v>
       </c>
       <c r="G20">
-        <v>3.648829939646734</v>
+        <v>2.070128200482564</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.19839194626572</v>
+        <v>14.2645224558256</v>
       </c>
       <c r="J20">
-        <v>9.816623793251436</v>
+        <v>5.33792576806412</v>
       </c>
       <c r="K20">
-        <v>16.66018999391872</v>
+        <v>25.05249936788199</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.14117187399667</v>
+        <v>19.31558325588907</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.01496106498394</v>
+        <v>14.40856555106981</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.838812434550051</v>
+        <v>6.447125138695249</v>
       </c>
       <c r="D21">
-        <v>9.195779851323428</v>
+        <v>7.357824708573964</v>
       </c>
       <c r="E21">
-        <v>13.24592637685575</v>
+        <v>8.711148147037994</v>
       </c>
       <c r="F21">
-        <v>31.81204953782381</v>
+        <v>21.62020830233049</v>
       </c>
       <c r="G21">
-        <v>3.64638471258495</v>
+        <v>2.06281342440701</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.10140752086037</v>
+        <v>14.4618065265296</v>
       </c>
       <c r="J21">
-        <v>9.780219235553941</v>
+        <v>5.264405131208096</v>
       </c>
       <c r="K21">
-        <v>17.32568576401511</v>
+        <v>26.54456891118893</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.45669477988297</v>
+        <v>20.48554234615129</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.87932649528634</v>
+        <v>14.44782110362894</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.924642073629655</v>
+        <v>6.642200877936888</v>
       </c>
       <c r="D22">
-        <v>9.224585284761842</v>
+        <v>7.533873259742335</v>
       </c>
       <c r="E22">
-        <v>13.23691531314081</v>
+        <v>8.812775426939181</v>
       </c>
       <c r="F22">
-        <v>31.74034522639818</v>
+        <v>21.90813626020112</v>
       </c>
       <c r="G22">
-        <v>3.644845417079804</v>
+        <v>2.058093184284429</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.0437468327623</v>
+        <v>14.61365765337152</v>
       </c>
       <c r="J22">
-        <v>9.757506810886781</v>
+        <v>5.219140057523871</v>
       </c>
       <c r="K22">
-        <v>17.7469281791173</v>
+        <v>27.48013261270135</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.6612045834224</v>
+        <v>21.21931541455324</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.79665354582124</v>
+        <v>14.50137237921164</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.879068443695908</v>
+        <v>6.538741210690882</v>
       </c>
       <c r="D23">
-        <v>9.209138708004083</v>
+        <v>7.440183167466745</v>
       </c>
       <c r="E23">
-        <v>13.24154203077851</v>
+        <v>8.758104466655167</v>
       </c>
       <c r="F23">
-        <v>31.77783153170962</v>
+        <v>21.75150939412551</v>
       </c>
       <c r="G23">
-        <v>3.645661604471125</v>
+        <v>2.060607311366196</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.07399574256368</v>
+        <v>14.53046099109154</v>
       </c>
       <c r="J23">
-        <v>9.769530156408459</v>
+        <v>5.243035713613456</v>
       </c>
       <c r="K23">
-        <v>17.52338622717629</v>
+        <v>26.98440307637427</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.55222737768672</v>
+        <v>20.83048842844934</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.84022930244633</v>
+        <v>14.47013342047832</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.701388520175209</v>
+        <v>6.132513267940891</v>
       </c>
       <c r="D24">
-        <v>9.152260154573014</v>
+        <v>7.079599348848174</v>
       </c>
       <c r="E24">
-        <v>13.26307849592755</v>
+        <v>8.560462725936475</v>
       </c>
       <c r="F24">
-        <v>31.93696895387293</v>
+        <v>21.22222771701703</v>
       </c>
       <c r="G24">
-        <v>3.648870902067479</v>
+        <v>2.070248856651489</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.2000733118015</v>
+        <v>14.26167226870577</v>
       </c>
       <c r="J24">
-        <v>9.817237068165106</v>
+        <v>5.339172663356055</v>
       </c>
       <c r="K24">
-        <v>16.64908859645415</v>
+        <v>25.0274387537017</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.13599008635607</v>
+        <v>19.29593498559063</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.01727833880592</v>
+        <v>14.40837113425885</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.499515159442733</v>
+        <v>5.663835230224181</v>
       </c>
       <c r="D25">
-        <v>9.094551103817244</v>
+        <v>6.679779479931634</v>
       </c>
       <c r="E25">
-        <v>13.2948853014343</v>
+        <v>8.36710184223044</v>
       </c>
       <c r="F25">
-        <v>32.14495522574269</v>
+        <v>20.78096932536797</v>
       </c>
       <c r="G25">
-        <v>3.652586819563192</v>
+        <v>2.080943306671128</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.36044755776615</v>
+        <v>14.06422689754736</v>
       </c>
       <c r="J25">
-        <v>9.873346562932465</v>
+        <v>5.454066772628405</v>
       </c>
       <c r="K25">
-        <v>15.65061046354425</v>
+        <v>22.74435264972782</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.68154269250163</v>
+        <v>17.56022311180633</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.23370403585931</v>
+        <v>14.45068908436666</v>
       </c>
     </row>
   </sheetData>
